--- a/DB/Tablas de aprendizaje de movimientos/Awabu, Bakabu y Mizubu.xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Awabu, Bakabu y Mizubu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\RETOCAR Tablas de movimientos - copia\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Documents\Monsters Feudal Seishin\Guión y bases de datos\Bases para el sistema de combate\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Awabu" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="Mizubu" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Awabu!$A$2:$A$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bakabu!$A$2:$A$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mizubu!$A$2:$A$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Awabu!$A$2:$A$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bakabu!$A$2:$A$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mizubu!$A$2:$A$48</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Awabu!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">Bakabu!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Mizubu!#REF!</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
   <si>
     <t>Movimiento</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Retribución</t>
   </si>
   <si>
-    <t>Voto agua</t>
-  </si>
-  <si>
     <t>Gruñido</t>
   </si>
   <si>
@@ -63,21 +60,6 @@
     <t>Acua aro</t>
   </si>
   <si>
-    <t>Golpe cuerpo</t>
-  </si>
-  <si>
-    <t>Amnesia</t>
-  </si>
-  <si>
-    <t>Corpulencia</t>
-  </si>
-  <si>
-    <t>Doble filo</t>
-  </si>
-  <si>
-    <t>Acua cola</t>
-  </si>
-  <si>
     <t>Danza caos</t>
   </si>
   <si>
@@ -105,18 +87,12 @@
     <t>Tutor</t>
   </si>
   <si>
-    <t>Garra dragón</t>
-  </si>
-  <si>
     <t>Tajo umbrío</t>
   </si>
   <si>
     <t>Espada santa</t>
   </si>
   <si>
-    <t>Danza espada</t>
-  </si>
-  <si>
     <t>Excavar</t>
   </si>
   <si>
@@ -165,9 +141,6 @@
     <t>Poder pasado</t>
   </si>
   <si>
-    <t>Tambor</t>
-  </si>
-  <si>
     <t>Reserva</t>
   </si>
   <si>
@@ -189,22 +162,34 @@
     <t>Bola sombra</t>
   </si>
   <si>
-    <t>Danza dragón</t>
-  </si>
-  <si>
-    <t>Danza lluvia</t>
-  </si>
-  <si>
-    <t>Levitón</t>
-  </si>
-  <si>
-    <t>Espacio raro</t>
-  </si>
-  <si>
-    <t>Velo sagrado</t>
-  </si>
-  <si>
-    <t>Aullido</t>
+    <t>Rugido de guerra</t>
+  </si>
+  <si>
+    <t>Golpe cabeza</t>
+  </si>
+  <si>
+    <t>Agua lodosa</t>
+  </si>
+  <si>
+    <t>Golpe</t>
+  </si>
+  <si>
+    <t>Hidroariete</t>
+  </si>
+  <si>
+    <t>Rayo burbuja</t>
+  </si>
+  <si>
+    <t>Amago</t>
+  </si>
+  <si>
+    <t>Anticipo</t>
+  </si>
+  <si>
+    <t>Amnesia </t>
+  </si>
+  <si>
+    <t>Imitación</t>
   </si>
 </sst>
 </file>
@@ -260,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -269,6 +254,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,19 +539,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -578,188 +567,164 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B9" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B14" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -773,19 +738,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -801,227 +766,219 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="3">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="3">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B12" s="3">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A19:B30">
@@ -1034,19 +991,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1062,15 +1019,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1078,396 +1035,356 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B12" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="3">
+        <v>45</v>
+      </c>
+      <c r="B17">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B40" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B46" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
       <c r="B47" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
